--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>261.861864567885</v>
+        <v>1155.067116999948</v>
       </c>
       <c r="R2">
-        <v>2356.756781110965</v>
+        <v>10395.60405299954</v>
       </c>
       <c r="S2">
-        <v>0.0009259615872419507</v>
+        <v>0.003259425811579131</v>
       </c>
       <c r="T2">
-        <v>0.0009259615872419507</v>
+        <v>0.00325942581157913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>926.3634582560402</v>
+        <v>2469.121270477525</v>
       </c>
       <c r="R3">
-        <v>8337.271124304361</v>
+        <v>22222.09143429772</v>
       </c>
       <c r="S3">
-        <v>0.003275684985995109</v>
+        <v>0.00696748914627258</v>
       </c>
       <c r="T3">
-        <v>0.003275684985995109</v>
+        <v>0.006967489146272579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>362.266102034838</v>
+        <v>1589.112754148071</v>
       </c>
       <c r="R4">
-        <v>3260.394918313542</v>
+        <v>14302.01478733264</v>
       </c>
       <c r="S4">
-        <v>0.001280997885651168</v>
+        <v>0.004484237367810079</v>
       </c>
       <c r="T4">
-        <v>0.001280997885651168</v>
+        <v>0.004484237367810078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>96.29556935909402</v>
+        <v>230.4590096439116</v>
       </c>
       <c r="R5">
-        <v>866.6601242318461</v>
+        <v>2074.131086795204</v>
       </c>
       <c r="S5">
-        <v>0.0003405077650205102</v>
+        <v>0.0006503206900178449</v>
       </c>
       <c r="T5">
-        <v>0.0003405077650205101</v>
+        <v>0.000650320690017845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>271.884356043714</v>
+        <v>874.3808345958865</v>
       </c>
       <c r="R6">
-        <v>2446.959204393426</v>
+        <v>7869.427511362979</v>
       </c>
       <c r="S6">
-        <v>0.0009614018073381142</v>
+        <v>0.002467371306382764</v>
       </c>
       <c r="T6">
-        <v>0.0009614018073381141</v>
+        <v>0.002467371306382763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>268.078021943004</v>
+        <v>1114.460992658931</v>
       </c>
       <c r="R7">
-        <v>2412.702197487036</v>
+        <v>10030.14893393038</v>
       </c>
       <c r="S7">
-        <v>0.0009479423478200869</v>
+        <v>0.003144841431297348</v>
       </c>
       <c r="T7">
-        <v>0.0009479423478200869</v>
+        <v>0.003144841431297347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>31483.63360650317</v>
+        <v>52102.5295552504</v>
       </c>
       <c r="R8">
-        <v>283352.7024585285</v>
+        <v>468922.7659972535</v>
       </c>
       <c r="S8">
-        <v>0.1113282966747691</v>
+        <v>0.1470255080259161</v>
       </c>
       <c r="T8">
-        <v>0.1113282966747691</v>
+        <v>0.147025508025916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>111376.6135986004</v>
@@ -1013,10 +1013,10 @@
         <v>1002389.522387404</v>
       </c>
       <c r="S9">
-        <v>0.393835376065834</v>
+        <v>0.314288065019489</v>
       </c>
       <c r="T9">
-        <v>0.393835376065834</v>
+        <v>0.3142880650194889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>43555.22803345878</v>
+        <v>71681.37073685644</v>
       </c>
       <c r="R10">
-        <v>391997.0523011291</v>
+        <v>645132.336631708</v>
       </c>
       <c r="S10">
-        <v>0.1540142859255145</v>
+        <v>0.2022740553777649</v>
       </c>
       <c r="T10">
-        <v>0.1540142859255146</v>
+        <v>0.2022740553777649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>11577.60954858466</v>
+        <v>10395.49752955713</v>
       </c>
       <c r="R11">
-        <v>104198.485937262</v>
+        <v>93559.47776601417</v>
       </c>
       <c r="S11">
-        <v>0.04093922470064693</v>
+        <v>0.02933453171106689</v>
       </c>
       <c r="T11">
-        <v>0.04093922470064693</v>
+        <v>0.02933453171106689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>32688.63705353049</v>
+        <v>39441.39055347961</v>
       </c>
       <c r="R12">
-        <v>294197.7334817744</v>
+        <v>354972.5149813165</v>
       </c>
       <c r="S12">
-        <v>0.1155892718506797</v>
+        <v>0.1112976765787286</v>
       </c>
       <c r="T12">
-        <v>0.1155892718506797</v>
+        <v>0.1112976765787286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>32231.00177162931</v>
+        <v>50270.87686384914</v>
       </c>
       <c r="R13">
-        <v>290079.0159446638</v>
+        <v>452437.8917746423</v>
       </c>
       <c r="S13">
-        <v>0.1139710419770538</v>
+        <v>0.1418568594059919</v>
       </c>
       <c r="T13">
-        <v>0.1139710419770538</v>
+        <v>0.1418568594059919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>23.83372678282111</v>
+        <v>4.651951528501668</v>
       </c>
       <c r="R14">
-        <v>214.50354104539</v>
+        <v>41.86756375651501</v>
       </c>
       <c r="S14">
-        <v>8.42776993058141E-05</v>
+        <v>1.312710808147264E-05</v>
       </c>
       <c r="T14">
-        <v>8.42776993058141E-05</v>
+        <v>1.312710808147264E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>84.3142761627289</v>
+        <v>9.944212158066668</v>
       </c>
       <c r="R15">
-        <v>758.82848546456</v>
+        <v>89.49790942260002</v>
       </c>
       <c r="S15">
-        <v>0.0002981410871400762</v>
+        <v>2.806107221544509E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002981410871400761</v>
+        <v>2.806107221544508E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>32.97216000819244</v>
+        <v>6.400039787143334</v>
       </c>
       <c r="R16">
-        <v>296.749440073732</v>
+        <v>57.60035808429001</v>
       </c>
       <c r="S16">
-        <v>0.000116591828544269</v>
+        <v>1.805995043087122E-05</v>
       </c>
       <c r="T16">
-        <v>0.000116591828544269</v>
+        <v>1.805995043087121E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>8.764477005035111</v>
+        <v>0.9281574433133335</v>
       </c>
       <c r="R17">
-        <v>78.88029304531599</v>
+        <v>8.353416989820001</v>
       </c>
       <c r="S17">
-        <v>3.099179428940487E-05</v>
+        <v>2.619120814210581E-06</v>
       </c>
       <c r="T17">
-        <v>3.099179428940487E-05</v>
+        <v>2.619120814210581E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>24.745937974444</v>
+        <v>3.521507278776667</v>
       </c>
       <c r="R18">
-        <v>222.713441769996</v>
+        <v>31.69356550899001</v>
       </c>
       <c r="S18">
-        <v>8.750334090234382E-05</v>
+        <v>9.937164300824753E-06</v>
       </c>
       <c r="T18">
-        <v>8.750334090234381E-05</v>
+        <v>9.937164300824751E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>24.39949911000622</v>
+        <v>4.488413220281666</v>
       </c>
       <c r="R19">
-        <v>219.595491990056</v>
+        <v>40.395718982535</v>
       </c>
       <c r="S19">
-        <v>8.627830921883979E-05</v>
+        <v>1.266562755350235E-05</v>
       </c>
       <c r="T19">
-        <v>8.627830921883977E-05</v>
+        <v>1.266562755350235E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>2030.008329087294</v>
+        <v>1775.460341530131</v>
       </c>
       <c r="R20">
-        <v>18270.07496178565</v>
+        <v>15979.14307377118</v>
       </c>
       <c r="S20">
-        <v>0.007178249256026188</v>
+        <v>0.005010082253617361</v>
       </c>
       <c r="T20">
-        <v>0.007178249256026189</v>
+        <v>0.005010082253617358</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>7181.364644771956</v>
+        <v>3795.300575734019</v>
       </c>
       <c r="R21">
-        <v>64632.2818029476</v>
+        <v>34157.70518160616</v>
       </c>
       <c r="S21">
-        <v>0.02539379995635985</v>
+        <v>0.01070976783702271</v>
       </c>
       <c r="T21">
-        <v>0.02539379995635985</v>
+        <v>0.01070976783702271</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>2808.363125689357</v>
+        <v>2442.634399062152</v>
       </c>
       <c r="R22">
-        <v>25275.26813120422</v>
+        <v>21983.70959155937</v>
       </c>
       <c r="S22">
-        <v>0.009930565421224009</v>
+        <v>0.0068927471757943</v>
       </c>
       <c r="T22">
-        <v>0.009930565421224009</v>
+        <v>0.006892747175794298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>746.5035360369844</v>
+        <v>354.2398757171903</v>
       </c>
       <c r="R23">
-        <v>6718.53182433286</v>
+        <v>3188.158881454713</v>
       </c>
       <c r="S23">
-        <v>0.002639687914279475</v>
+        <v>0.0009996116913119995</v>
       </c>
       <c r="T23">
-        <v>0.002639687914279475</v>
+        <v>0.0009996116913119993</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>2107.70479400674</v>
+        <v>1344.015834552654</v>
       </c>
       <c r="R24">
-        <v>18969.34314606066</v>
+        <v>12096.14251097389</v>
       </c>
       <c r="S24">
-        <v>0.007452989306848854</v>
+        <v>0.003792610695809622</v>
       </c>
       <c r="T24">
-        <v>0.007452989306848854</v>
+        <v>0.00379261069580962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>2078.197290344529</v>
+        <v>1713.044433112645</v>
       </c>
       <c r="R25">
-        <v>18703.77561310076</v>
+        <v>15417.39989801381</v>
       </c>
       <c r="S25">
-        <v>0.007348648741750932</v>
+        <v>0.004833953940418119</v>
       </c>
       <c r="T25">
-        <v>0.007348648741750933</v>
+        <v>0.004833953940418117</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>10.87981374672889</v>
+        <v>28.05396277157734</v>
       </c>
       <c r="R26">
-        <v>97.91832372055998</v>
+        <v>252.485664944196</v>
       </c>
       <c r="S26">
-        <v>3.847177068887867E-05</v>
+        <v>7.9164066770644E-05</v>
       </c>
       <c r="T26">
-        <v>3.847177068887868E-05</v>
+        <v>7.916406677064398E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H27">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>38.48846759047111</v>
+        <v>59.96936037829334</v>
       </c>
       <c r="R27">
-        <v>346.39620831424</v>
+        <v>539.72424340464</v>
       </c>
       <c r="S27">
-        <v>0.0001360978720570593</v>
+        <v>0.0001692245223191726</v>
       </c>
       <c r="T27">
-        <v>0.0001360978720570593</v>
+        <v>0.0001692245223191726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H28">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>15.05140018534755</v>
+        <v>38.59594770605067</v>
       </c>
       <c r="R28">
-        <v>135.462601668128</v>
+        <v>347.363529354456</v>
       </c>
       <c r="S28">
-        <v>5.322278762826567E-05</v>
+        <v>0.0001089119639231021</v>
       </c>
       <c r="T28">
-        <v>5.322278762826568E-05</v>
+        <v>0.0001089119639231021</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H29">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>4.000879856984889</v>
+        <v>5.597327100538667</v>
       </c>
       <c r="R29">
-        <v>36.007918712864</v>
+        <v>50.375943904848</v>
       </c>
       <c r="S29">
-        <v>1.414738671036111E-05</v>
+        <v>1.579481586726524E-05</v>
       </c>
       <c r="T29">
-        <v>1.414738671036111E-05</v>
+        <v>1.579481586726524E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H30">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>11.296227342176</v>
+        <v>21.23672903583733</v>
       </c>
       <c r="R30">
-        <v>101.666046079584</v>
+        <v>191.130561322536</v>
       </c>
       <c r="S30">
-        <v>3.994423784031217E-05</v>
+        <v>5.99268577160294E-05</v>
       </c>
       <c r="T30">
-        <v>3.994423784031217E-05</v>
+        <v>5.992685771602939E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H31">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>11.13808210731378</v>
+        <v>27.06773202896933</v>
       </c>
       <c r="R31">
-        <v>100.242738965824</v>
+        <v>243.609588260724</v>
       </c>
       <c r="S31">
-        <v>3.938502539855621E-05</v>
+        <v>7.638107183353722E-05</v>
       </c>
       <c r="T31">
-        <v>3.938502539855621E-05</v>
+        <v>7.638107183353721E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H32">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>54.89577812137665</v>
+        <v>6.44186143383989</v>
       </c>
       <c r="R32">
-        <v>494.0620030923899</v>
+        <v>57.97675290455901</v>
       </c>
       <c r="S32">
-        <v>0.0001941152520472272</v>
+        <v>1.817796483256204E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001941152520472272</v>
+        <v>1.817796483256204E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H33">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>194.1994988391733</v>
+        <v>13.77040074439556</v>
       </c>
       <c r="R33">
-        <v>1747.79548955256</v>
+        <v>123.93360669956</v>
       </c>
       <c r="S33">
-        <v>0.0006867028021947635</v>
+        <v>3.885800137627272E-05</v>
       </c>
       <c r="T33">
-        <v>0.0006867028021947635</v>
+        <v>3.885800137627271E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H34">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>75.94416083081465</v>
+        <v>8.862553538497112</v>
       </c>
       <c r="R34">
-        <v>683.4974474773319</v>
+        <v>79.76298184647401</v>
       </c>
       <c r="S34">
-        <v>0.0002685437828860682</v>
+        <v>2.500879415120666E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002685437828860682</v>
+        <v>2.500879415120665E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H35">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>20.18705632579066</v>
+        <v>1.285280296232445</v>
       </c>
       <c r="R35">
-        <v>181.683506932116</v>
+        <v>11.567522666092</v>
       </c>
       <c r="S35">
-        <v>7.138282142769193E-05</v>
+        <v>3.626867833909853E-06</v>
       </c>
       <c r="T35">
-        <v>7.138282142769193E-05</v>
+        <v>3.626867833909853E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H36">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>56.99685713564399</v>
+        <v>4.876461370921556</v>
       </c>
       <c r="R36">
-        <v>512.9717142207959</v>
+        <v>43.888152338294</v>
       </c>
       <c r="S36">
-        <v>0.0002015448121406076</v>
+        <v>1.376064111567205E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002015448121406076</v>
+        <v>1.376064111567205E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H37">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>56.19891096431732</v>
+        <v>6.215399246041222</v>
       </c>
       <c r="R37">
-        <v>505.7901986788559</v>
+        <v>55.938593214371</v>
       </c>
       <c r="S37">
-        <v>0.0001987232195251478</v>
+        <v>1.753892257311757E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001987232195251478</v>
+        <v>1.753892257311757E-05</v>
       </c>
     </row>
   </sheetData>
